--- a/Vistas anteriores/Annual_V2.xlsx
+++ b/Vistas anteriores/Annual_V2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\Dashboard_NIBU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\Dashboard_NIBU\Vistas anteriores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8EB8B-1645-44D1-8937-7A8B9623B98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBBC1E-E11D-48A9-9603-177529F04DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="7" xr2:uid="{53836420-D36C-410F-ABBE-B356CDD75E29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="9" xr2:uid="{53836420-D36C-410F-ABBE-B356CDD75E29}"/>
   </bookViews>
   <sheets>
     <sheet name="AP25" sheetId="1" r:id="rId1"/>
@@ -2420,18 +2420,6 @@
     <xf numFmtId="9" fontId="28" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2444,11 +2432,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2459,16 +2462,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2489,9 +2483,6 @@
     <xf numFmtId="0" fontId="13" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2499,6 +2490,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6502,8 +6502,8 @@
   <sheetPr codeName="Hoja10"/>
   <dimension ref="C1:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,14 +6519,14 @@
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="283" t="s">
+      <c r="C2" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="285"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="295"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="214">
@@ -6541,7 +6541,7 @@
       <c r="F3" s="215">
         <v>0.04</v>
       </c>
-      <c r="G3" s="293">
+      <c r="G3" s="290">
         <v>0.04</v>
       </c>
       <c r="H3" s="298"/>
@@ -6559,7 +6559,7 @@
       <c r="F4" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="292" t="s">
+      <c r="G4" s="283" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="297"/>
@@ -6599,11 +6599,11 @@
     <row r="6" spans="3:15" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:15" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="286" t="s">
+      <c r="D8" s="284" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="287"/>
-      <c r="F8" s="288"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="286"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D9" s="217">
@@ -6641,11 +6641,11 @@
     <row r="12" spans="3:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="3:15" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="289" t="s">
+      <c r="D14" s="287" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="290"/>
-      <c r="F14" s="291"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="289"/>
     </row>
     <row r="15" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="241">
@@ -6999,17 +6999,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C7">
     <cfRule type="iconSet" priority="12">
@@ -7216,25 +7216,25 @@
       </c>
     </row>
     <row r="3" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="269" t="s">
+      <c r="B3" s="275" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="275" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="269" t="s">
+      <c r="D3" s="275" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="269" t="s">
+      <c r="E3" s="275" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="271" t="s">
+      <c r="F3" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="271" t="s">
+      <c r="G3" s="273" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="273" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -7252,17 +7252,17 @@
       <c r="N3">
         <v>5</v>
       </c>
-      <c r="S3" s="273" t="s">
+      <c r="S3" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
+      <c r="T3" s="269"/>
+      <c r="U3" s="269"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="273" t="s">
+      <c r="W3" s="269" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
+      <c r="X3" s="269"/>
+      <c r="Y3" s="269"/>
       <c r="AA3">
         <v>1</v>
       </c>
@@ -7272,23 +7272,23 @@
       <c r="AC3">
         <v>3</v>
       </c>
-      <c r="AE3" s="274" t="s">
+      <c r="AE3" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="274"/>
-      <c r="AG3" s="274"/>
-      <c r="AH3" s="274"/>
-      <c r="AK3" s="276" t="s">
+      <c r="AF3" s="270"/>
+      <c r="AG3" s="270"/>
+      <c r="AH3" s="270"/>
+      <c r="AK3" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="276"/>
-      <c r="AM3" s="276"/>
-      <c r="AN3" s="275" t="s">
+      <c r="AL3" s="272"/>
+      <c r="AM3" s="272"/>
+      <c r="AN3" s="271" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="275"/>
-      <c r="AP3" s="275"/>
-      <c r="AQ3" s="275"/>
+      <c r="AO3" s="271"/>
+      <c r="AP3" s="271"/>
+      <c r="AQ3" s="271"/>
       <c r="AT3">
         <v>1</v>
       </c>
@@ -7318,13 +7318,13 @@
       </c>
     </row>
     <row r="4" spans="2:54" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="270"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
       <c r="J4" s="20" t="s">
         <v>1</v>
       </c>
@@ -10855,28 +10855,28 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="269" t="s">
+      <c r="B56" s="275" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="271" t="s">
+      <c r="C56" s="273" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="271" t="s">
+      <c r="D56" s="273" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="271" t="s">
+      <c r="E56" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="271" t="s">
+      <c r="F56" s="273" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="270"/>
-      <c r="C57" s="272"/>
-      <c r="D57" s="272"/>
-      <c r="E57" s="272"/>
-      <c r="F57" s="272"/>
+      <c r="B57" s="276"/>
+      <c r="C57" s="274"/>
+      <c r="D57" s="274"/>
+      <c r="E57" s="274"/>
+      <c r="F57" s="274"/>
       <c r="I57" s="12" t="s">
         <v>91</v>
       </c>
@@ -11479,23 +11479,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <conditionalFormatting sqref="O18">
     <cfRule type="cellIs" dxfId="56" priority="4" operator="lessThan">
@@ -11585,34 +11585,34 @@
       </c>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B3" s="269" t="s">
+      <c r="B3" s="275" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="275" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="271" t="s">
+      <c r="D3" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="269" t="s">
+      <c r="E3" s="275" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="271" t="s">
+      <c r="F3" s="273" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="271" t="s">
+      <c r="G3" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="271" t="s">
+      <c r="I3" s="273" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="271" t="s">
+      <c r="J3" s="273" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="271" t="s">
+      <c r="K3" s="273" t="s">
         <v>93</v>
       </c>
       <c r="AB3" s="20" t="s">
@@ -11644,16 +11644,16 @@
       </c>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B4" s="270"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="276"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
       <c r="M4" s="102" t="s">
         <v>34</v>
       </c>
@@ -16310,16 +16310,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18954,10 +18954,10 @@
       <c r="AB3" s="11">
         <v>7</v>
       </c>
-      <c r="AC3" s="274" t="s">
+      <c r="AC3" s="270" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" s="274"/>
+      <c r="AD3" s="270"/>
       <c r="AE3" s="278" t="s">
         <v>162</v>
       </c>
@@ -19071,64 +19071,64 @@
       <c r="T4" s="27">
         <v>0.96701655572623324</v>
       </c>
-      <c r="V4" s="269" t="s">
+      <c r="V4" s="275" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="271" t="s">
+      <c r="W4" s="273" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="271" t="s">
+      <c r="X4" s="273" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="271" t="s">
+      <c r="Y4" s="273" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="271" t="s">
+      <c r="Z4" s="273" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" s="271" t="s">
+      <c r="AA4" s="273" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="271" t="s">
+      <c r="AB4" s="273" t="s">
         <v>165</v>
       </c>
-      <c r="AC4" s="271" t="s">
+      <c r="AC4" s="273" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" s="271" t="s">
+      <c r="AD4" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="AE4" s="271" t="s">
+      <c r="AE4" s="273" t="s">
         <v>97</v>
       </c>
-      <c r="AF4" s="271" t="s">
+      <c r="AF4" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="AI4" s="269" t="s">
+      <c r="AI4" s="275" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="269" t="s">
+      <c r="AJ4" s="275" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" s="271" t="s">
+      <c r="AK4" s="273" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="271" t="s">
+      <c r="AL4" s="273" t="s">
         <v>165</v>
       </c>
-      <c r="AM4" s="271" t="s">
+      <c r="AM4" s="273" t="s">
         <v>89</v>
       </c>
-      <c r="AN4" s="271" t="s">
+      <c r="AN4" s="273" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="271" t="s">
+      <c r="AO4" s="273" t="s">
         <v>165</v>
       </c>
-      <c r="AP4" s="271" t="s">
+      <c r="AP4" s="273" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="271" t="s">
+      <c r="AQ4" s="273" t="s">
         <v>93</v>
       </c>
       <c r="AR4" s="163"/>
@@ -19239,26 +19239,26 @@
       <c r="T5" s="27">
         <v>0</v>
       </c>
-      <c r="V5" s="270"/>
-      <c r="W5" s="272"/>
-      <c r="X5" s="272"/>
-      <c r="Y5" s="272"/>
-      <c r="Z5" s="272"/>
-      <c r="AA5" s="272"/>
-      <c r="AB5" s="272"/>
-      <c r="AC5" s="272"/>
-      <c r="AD5" s="272"/>
-      <c r="AE5" s="272"/>
-      <c r="AF5" s="272"/>
-      <c r="AI5" s="270"/>
-      <c r="AJ5" s="270"/>
-      <c r="AK5" s="272"/>
-      <c r="AL5" s="272"/>
-      <c r="AM5" s="272"/>
-      <c r="AN5" s="272"/>
-      <c r="AO5" s="272"/>
-      <c r="AP5" s="272"/>
-      <c r="AQ5" s="272"/>
+      <c r="V5" s="276"/>
+      <c r="W5" s="274"/>
+      <c r="X5" s="274"/>
+      <c r="Y5" s="274"/>
+      <c r="Z5" s="274"/>
+      <c r="AA5" s="274"/>
+      <c r="AB5" s="274"/>
+      <c r="AC5" s="274"/>
+      <c r="AD5" s="274"/>
+      <c r="AE5" s="274"/>
+      <c r="AF5" s="274"/>
+      <c r="AI5" s="276"/>
+      <c r="AJ5" s="276"/>
+      <c r="AK5" s="274"/>
+      <c r="AL5" s="274"/>
+      <c r="AM5" s="274"/>
+      <c r="AN5" s="274"/>
+      <c r="AO5" s="274"/>
+      <c r="AP5" s="274"/>
+      <c r="AQ5" s="274"/>
       <c r="AR5" s="163"/>
       <c r="AT5" s="14" t="s">
         <v>13</v>
@@ -24772,17 +24772,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AI1:AQ1"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AE3:AF3"/>
@@ -24796,6 +24785,17 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="J41:J73">
     <cfRule type="cellIs" dxfId="52" priority="1" operator="lessThan">
@@ -24866,26 +24866,26 @@
         <v>12</v>
       </c>
       <c r="N3"/>
-      <c r="AD3" s="279" t="s">
+      <c r="AD3" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="279"/>
-      <c r="AF3" s="279" t="s">
+      <c r="AE3" s="280"/>
+      <c r="AF3" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="279"/>
-      <c r="AH3" s="280" t="s">
+      <c r="AG3" s="280"/>
+      <c r="AH3" s="281" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="281"/>
-      <c r="AJ3" s="279" t="s">
+      <c r="AI3" s="282"/>
+      <c r="AJ3" s="280" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="279"/>
-      <c r="AL3" s="279" t="s">
+      <c r="AK3" s="280"/>
+      <c r="AL3" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="AM3" s="279" t="s">
+      <c r="AM3" s="280" t="s">
         <v>6</v>
       </c>
     </row>
@@ -24937,28 +24937,28 @@
       <c r="AC4" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="273">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="282">
+      <c r="AD4" s="269">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="279">
         <v>0.75571428571428578</v>
       </c>
-      <c r="AF4" s="273">
+      <c r="AF4" s="269">
         <v>3</v>
       </c>
-      <c r="AG4" s="282">
+      <c r="AG4" s="279">
         <v>1.053409090909091</v>
       </c>
-      <c r="AH4" s="273">
+      <c r="AH4" s="269">
         <v>3</v>
       </c>
-      <c r="AI4" s="282">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="273">
+      <c r="AI4" s="279">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="269">
         <v>3</v>
       </c>
-      <c r="AK4" s="282">
+      <c r="AK4" s="279">
         <v>0.90102442810934147</v>
       </c>
       <c r="AL4" s="23">
@@ -25013,14 +25013,14 @@
         <f>VLOOKUP(B5,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.83472022955523673</v>
       </c>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="282"/>
-      <c r="AF5" s="273"/>
-      <c r="AG5" s="282"/>
-      <c r="AH5" s="273"/>
-      <c r="AI5" s="282"/>
-      <c r="AJ5" s="273"/>
-      <c r="AK5" s="282"/>
+      <c r="AD5" s="269"/>
+      <c r="AE5" s="279"/>
+      <c r="AF5" s="269"/>
+      <c r="AG5" s="279"/>
+      <c r="AH5" s="269"/>
+      <c r="AI5" s="279"/>
+      <c r="AJ5" s="269"/>
+      <c r="AK5" s="279"/>
       <c r="AL5" s="23">
         <v>1</v>
       </c>
@@ -25223,18 +25223,18 @@
       <c r="S9" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AD9" s="279" t="s">
+      <c r="AD9" s="280" t="s">
         <v>43</v>
       </c>
-      <c r="AE9" s="279"/>
-      <c r="AF9" s="279" t="s">
+      <c r="AE9" s="280"/>
+      <c r="AF9" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="AG9" s="279"/>
-      <c r="AH9" s="279" t="s">
+      <c r="AG9" s="280"/>
+      <c r="AH9" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="279"/>
+      <c r="AI9" s="280"/>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -25290,10 +25290,10 @@
       <c r="AE10" s="27">
         <v>0.75</v>
       </c>
-      <c r="AF10" s="282" t="s">
+      <c r="AF10" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="AG10" s="282"/>
+      <c r="AG10" s="279"/>
       <c r="AH10" s="23">
         <v>3</v>
       </c>
@@ -25392,18 +25392,18 @@
         <f>VLOOKUP(B12,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.92380952380952386</v>
       </c>
-      <c r="AD12" s="279" t="s">
+      <c r="AD12" s="280" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="279"/>
-      <c r="AF12" s="279" t="s">
+      <c r="AE12" s="280"/>
+      <c r="AF12" s="280" t="s">
         <v>11</v>
       </c>
-      <c r="AG12" s="279"/>
-      <c r="AH12" s="279" t="s">
+      <c r="AG12" s="280"/>
+      <c r="AH12" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="AI12" s="279"/>
+      <c r="AI12" s="280"/>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -27487,11 +27487,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AH9:AI9"/>
@@ -27502,11 +27502,11 @@
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AI4:AI5"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:M18">
     <cfRule type="cellIs" dxfId="51" priority="11" operator="lessThan">
@@ -27716,37 +27716,37 @@
         <f>G3/F3</f>
         <v>1.0391304347826087</v>
       </c>
-      <c r="J3" s="269" t="s">
+      <c r="J3" s="275" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="269" t="s">
+      <c r="K3" s="275" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="269" t="s">
+      <c r="L3" s="275" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="269" t="s">
+      <c r="M3" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="271" t="s">
+      <c r="N3" s="273" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="271" t="s">
+      <c r="O3" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="269" t="s">
+      <c r="P3" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="271" t="s">
+      <c r="Q3" s="273" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="271" t="s">
+      <c r="S3" s="273" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="271" t="s">
+      <c r="T3" s="273" t="s">
         <v>93</v>
       </c>
       <c r="W3">
@@ -27804,17 +27804,17 @@
         <f t="shared" ref="H4:H16" si="1">G4/F4</f>
         <v>1.0152173913043478</v>
       </c>
-      <c r="J4" s="270"/>
-      <c r="K4" s="270"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="270"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
-      <c r="S4" s="272"/>
-      <c r="T4" s="272"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
+      <c r="M4" s="276"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="276"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
       <c r="W4" s="192" t="s">
         <v>34</v>
       </c>
@@ -30612,17 +30612,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="M3:M4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
     <cfRule type="cellIs" dxfId="49" priority="24" operator="lessThan">
@@ -30738,8 +30738,8 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="C3:AI60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32258,23 +32258,23 @@
       </c>
     </row>
     <row r="23" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="E23" s="283" t="s">
+      <c r="E23" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="284"/>
-      <c r="G23" s="284"/>
-      <c r="H23" s="284"/>
-      <c r="I23" s="285"/>
-      <c r="J23" s="286" t="s">
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="295"/>
+      <c r="J23" s="284" t="s">
         <v>203</v>
       </c>
-      <c r="K23" s="287"/>
-      <c r="L23" s="288"/>
-      <c r="M23" s="289" t="s">
+      <c r="K23" s="285"/>
+      <c r="L23" s="286"/>
+      <c r="M23" s="287" t="s">
         <v>204</v>
       </c>
-      <c r="N23" s="290"/>
-      <c r="O23" s="291"/>
+      <c r="N23" s="288"/>
+      <c r="O23" s="289"/>
     </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.25">
       <c r="E24" s="214">
@@ -33036,23 +33036,23 @@
     </row>
     <row r="46" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E47" s="283" t="s">
+      <c r="E47" s="293" t="s">
         <v>225</v>
       </c>
-      <c r="F47" s="284"/>
-      <c r="G47" s="284"/>
-      <c r="H47" s="284"/>
-      <c r="I47" s="285"/>
-      <c r="J47" s="286" t="s">
+      <c r="F47" s="294"/>
+      <c r="G47" s="294"/>
+      <c r="H47" s="294"/>
+      <c r="I47" s="295"/>
+      <c r="J47" s="284" t="s">
         <v>203</v>
       </c>
-      <c r="K47" s="287"/>
-      <c r="L47" s="288"/>
-      <c r="M47" s="289" t="s">
+      <c r="K47" s="285"/>
+      <c r="L47" s="286"/>
+      <c r="M47" s="287" t="s">
         <v>226</v>
       </c>
-      <c r="N47" s="290"/>
-      <c r="O47" s="291"/>
+      <c r="N47" s="288"/>
+      <c r="O47" s="289"/>
       <c r="P47" s="235" t="s">
         <v>173</v>
       </c>
@@ -33207,24 +33207,24 @@
       <c r="J55" s="252"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E56" s="294" t="s">
+      <c r="E56" s="291" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="295"/>
-      <c r="G56" s="295"/>
-      <c r="H56" s="295"/>
-      <c r="I56" s="295"/>
-      <c r="J56" s="295"/>
-      <c r="K56" s="286" t="s">
+      <c r="F56" s="292"/>
+      <c r="G56" s="292"/>
+      <c r="H56" s="292"/>
+      <c r="I56" s="292"/>
+      <c r="J56" s="292"/>
+      <c r="K56" s="284" t="s">
         <v>203</v>
       </c>
-      <c r="L56" s="287"/>
-      <c r="M56" s="288"/>
-      <c r="N56" s="289" t="s">
+      <c r="L56" s="285"/>
+      <c r="M56" s="286"/>
+      <c r="N56" s="287" t="s">
         <v>226</v>
       </c>
-      <c r="O56" s="290"/>
-      <c r="P56" s="291"/>
+      <c r="O56" s="288"/>
+      <c r="P56" s="289"/>
       <c r="Q56" s="235" t="s">
         <v>173</v>
       </c>
@@ -33242,10 +33242,10 @@
       <c r="H57" s="215">
         <v>0.04</v>
       </c>
-      <c r="I57" s="293">
+      <c r="I57" s="290">
         <v>0.04</v>
       </c>
-      <c r="J57" s="293"/>
+      <c r="J57" s="290"/>
       <c r="K57" s="217">
         <v>0.05</v>
       </c>
@@ -33289,10 +33289,10 @@
       <c r="H59" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="292" t="s">
+      <c r="I59" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="292"/>
+      <c r="J59" s="283"/>
       <c r="K59" s="204" t="s">
         <v>7</v>
       </c>
@@ -33367,17 +33367,17 @@
     <sortCondition ref="AC5:AC21"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E56:J56"/>
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="J47:L47"/>
     <mergeCell ref="M47:O47"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E56:J56"/>
   </mergeCells>
   <conditionalFormatting sqref="E27:E29 E31:E32">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
@@ -36111,15 +36111,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B9CBAF11028447B385221D9B36D96A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09be7b49b3ef9a75f18b705818ef77e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="22ff7873-98f4-4119-bbca-70544c3aaded" xmlns:ns3="242fb338-6e7f-46c2-a04d-1835f0b57452" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2802d257e544272840eb93994043e80d" ns2:_="" ns3:_="">
     <xsd:import namespace="22ff7873-98f4-4119-bbca-70544c3aaded"/>
@@ -36354,6 +36345,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -36366,14 +36366,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834DA8F5-60A1-4558-9A54-21F8114614ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA69235-E416-4829-BB38-0C60BB2D4E8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36388,6 +36380,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834DA8F5-60A1-4558-9A54-21F8114614ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
